--- a/results/I3_N5_M2_T45_C200_DepCentral_s2_mean_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepCentral_s2_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.42908392284503</v>
+        <v>22.71436508284903</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2070000171661377</v>
+        <v>0.09399986267089844</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.42908392284503</v>
+        <v>22.71436508284903</v>
       </c>
     </row>
     <row r="7">
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30.66483080554371</v>
+        <v>30.66483080554364</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>32.99312545677576</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.99312545677579</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>40.49313212343934</v>
+        <v>31.95858503258972</v>
       </c>
     </row>
     <row r="8">
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>41.07300000000491</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="4">
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>156.34500000003</v>
+        <v>124.2</v>
       </c>
     </row>
     <row r="5">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>43.74300000001598</v>
+        <v>136.6</v>
       </c>
     </row>
     <row r="6">
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>151.534000000045</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>199.0730000000679</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>156.3450000000485</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>199.0730000000918</v>
+        <v>136.6</v>
       </c>
     </row>
   </sheetData>
